--- a/src/private/templates/auditor_improvement_plan.xlsx
+++ b/src/private/templates/auditor_improvement_plan.xlsx
@@ -26,48 +26,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Ханган Нийлүүлэгчийн Сайжруулах Төлөвлөгөө</t>
-  </si>
-  <si>
-    <t>НЭР</t>
-  </si>
-  <si>
-    <t>Баян Уул ХХК</t>
-  </si>
-  <si>
-    <t>2017 оны 5 сарын 8</t>
-  </si>
-  <si>
-    <t>Үнэлгээнд тэнцээгүй, сайжруулах зөвлөмж өгөгдсөн</t>
-  </si>
-  <si>
-    <t>Г. Наранцацрал</t>
-  </si>
-  <si>
-    <t>ҮНЭЛГЭЭ ХИЙГДСЭН ӨДӨР</t>
-  </si>
-  <si>
-    <t>ҮНЭЛГЭЭНИЙ ДҮН</t>
-  </si>
-  <si>
-    <t>ДАВТАН ҮНЭЛГЭЭНИЙ ӨДӨР</t>
-  </si>
-  <si>
-    <t>АУДИТОРЫН НЭР</t>
-  </si>
-  <si>
-    <t>ШАЛГУУР</t>
-  </si>
-  <si>
-    <t>ХИЙГДЭХ АЖЛУУД</t>
-  </si>
-  <si>
-    <t>ОГНОО</t>
-  </si>
-  <si>
-    <t>НОТЛОХ БАРИМТУУД</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Supplier Improvement Plan</t>
+  </si>
+  <si>
+    <t>SUPPLIER NAME</t>
+  </si>
+  <si>
+    <t>GLOBAL WELDING MONGOLIA</t>
+  </si>
+  <si>
+    <t>AUDIT DATE</t>
+  </si>
+  <si>
+    <t>MARCH 30,2017</t>
+  </si>
+  <si>
+    <t>PLANNED REVIEW DATE</t>
+  </si>
+  <si>
+    <t>QUALIFICATION AUDITOR(S) NAME(S)</t>
+  </si>
+  <si>
+    <t>NARANTSATSRAL GONCHIG</t>
+  </si>
+  <si>
+    <t>CRITERIA ( SHORT QUESTION DESCRIPTION)</t>
+  </si>
+  <si>
+    <t>IMPROVEMENT ACTION (USE VERBS)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>REQUIRED ACTION</t>
   </si>
 </sst>
 </file>
@@ -83,13 +77,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -108,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -131,37 +125,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,10 +234,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1617865</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>99400</xdr:rowOff>
+      <xdr:rowOff>78085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -524,20 +571,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="195" zoomScaleNormal="195" zoomScalePageLayoutView="195" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="62" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="2"/>
-    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="6.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="2"/>
     <col min="10" max="10" width="9.33203125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="2"/>
@@ -562,11 +610,11 @@
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1"/>
@@ -577,9 +625,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="1"/>
@@ -612,153 +660,134 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>42889</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7">
-        <v>42955</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="F2:H3"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:J7"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="H12:H13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/private/templates/auditor_improvement_plan.xlsx
+++ b/src/private/templates/auditor_improvement_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,24 +31,12 @@
     <t>Supplier Improvement Plan</t>
   </si>
   <si>
-    <t>SUPPLIER NAME</t>
-  </si>
-  <si>
     <t>GLOBAL WELDING MONGOLIA</t>
   </si>
   <si>
-    <t>AUDIT DATE</t>
-  </si>
-  <si>
     <t>MARCH 30,2017</t>
   </si>
   <si>
-    <t>PLANNED REVIEW DATE</t>
-  </si>
-  <si>
-    <t>QUALIFICATION AUDITOR(S) NAME(S)</t>
-  </si>
-  <si>
     <t>NARANTSATSRAL GONCHIG</t>
   </si>
   <si>
@@ -62,13 +50,25 @@
   </si>
   <si>
     <t>REQUIRED ACTION</t>
+  </si>
+  <si>
+    <t>Supplier name</t>
+  </si>
+  <si>
+    <t>Audit date</t>
+  </si>
+  <si>
+    <t>Planned review date</t>
+  </si>
+  <si>
+    <t>Qualification auditor(s) name(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +87,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +109,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,11 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -186,28 +210,28 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -216,6 +240,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB7DEE8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,8 +290,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609601" y="190501"/>
-          <a:ext cx="1495423" cy="618796"/>
+          <a:off x="669637" y="177031"/>
+          <a:ext cx="1619345" cy="624569"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,7 +603,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E2" sqref="E2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -593,137 +622,137 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="13" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>42889</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -741,45 +770,45 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F2:H3"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E2:I3"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="B9:D9"/>

--- a/src/private/templates/auditor_improvement_plan.xlsx
+++ b/src/private/templates/auditor_improvement_plan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamarbattulga/Documents/works/ot/backend/src/private/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamar/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58744F7-978F-C14D-835C-2BE47556D8F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Improvement Plan" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,49 +26,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Supplier Improvement Plan</t>
+    <t>Yes</t>
   </si>
   <si>
-    <t>GLOBAL WELDING MONGOLIA</t>
+    <t>No</t>
   </si>
   <si>
-    <t>MARCH 30,2017</t>
+    <t xml:space="preserve">Компанийн нэр: </t>
   </si>
   <si>
-    <t>NARANTSATSRAL GONCHIG</t>
+    <t>Үнэлгээний үр дүн:</t>
   </si>
   <si>
-    <t>CRITERIA ( SHORT QUESTION DESCRIPTION)</t>
+    <t>Үнэлгээнд хамрагдсан огноо:</t>
   </si>
   <si>
-    <t>IMPROVEMENT ACTION (USE VERBS)</t>
+    <t xml:space="preserve">Аудиторын нэр: </t>
   </si>
   <si>
-    <t>DATE</t>
+    <t xml:space="preserve">Оюу толгой ХХК - Нийлүүлэгчийн Гэрээ хэрэгжүүлэх чадварын үнэлгээ - Сайжруулах төлөвлөгөө   </t>
   </si>
   <si>
-    <t>REQUIRED ACTION</t>
-  </si>
-  <si>
-    <t>Supplier name</t>
-  </si>
-  <si>
-    <t>Audit date</t>
-  </si>
-  <si>
-    <t>Planned review date</t>
-  </si>
-  <si>
-    <t>Qualification auditor(s) name(s)</t>
+    <t xml:space="preserve">Давтан үнэлгээнд хамрагдах огноо:  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,29 +65,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="18"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,24 +115,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF2496A9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -134,9 +128,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -156,25 +148,64 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -193,61 +224,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="16">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFB7DEE8"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -257,55 +322,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>318172</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78085</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>601326</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="669637" y="177031"/>
-          <a:ext cx="1619345" cy="624569"/>
+          <a:off x="8823997" y="119944"/>
+          <a:ext cx="732753" cy="481382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -389,6 +443,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -424,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,251 +687,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="6.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="2"/>
-    <col min="10" max="10" width="9.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="81.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+    <row r="1" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
-        <v>42889</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="1"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:J5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="D11:G12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/private/templates/auditor_improvement_plan.xlsx
+++ b/src/private/templates/auditor_improvement_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamar/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58744F7-978F-C14D-835C-2BE47556D8F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764E12B-E117-5143-A699-311108649338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,13 +70,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -105,6 +98,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,64 +227,64 @@
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -691,7 +691,7 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J2"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -707,96 +707,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:J3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/private/templates/auditor_improvement_plan.xlsx
+++ b/src/private/templates/auditor_improvement_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamar/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764E12B-E117-5143-A699-311108649338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739E946-91D7-C743-BB5D-BF026B0DCA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,6 +244,30 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -256,35 +280,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -691,7 +691,7 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -707,96 +707,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:J3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/private/templates/auditor_improvement_plan.xlsx
+++ b/src/private/templates/auditor_improvement_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamar/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739E946-91D7-C743-BB5D-BF026B0DCA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FF17F-9B05-4549-B712-0470DD78D42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -244,47 +244,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -691,7 +691,7 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -707,96 +707,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:J3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
